--- a/RequiredOutages.xlsx
+++ b/RequiredOutages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Temp Work files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\Desktop\WCU\Classes\Fall 2024\ENGR 400\Testing Code\Senior-Capstone-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF4D385-5FE7-43A2-A04B-D3D4C3AD434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629C838B-C8F3-418E-B6D3-F2AED3B457DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26AAAF9A-F353-4EFB-AE1B-939DC5C272A4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{26AAAF9A-F353-4EFB-AE1B-939DC5C272A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
-  <si>
-    <t>From Bus</t>
-  </si>
-  <si>
-    <t>To Bus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Branch Num</t>
   </si>
@@ -51,106 +45,139 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Other Considerations</t>
+    <t>Materials not available until 8/16</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>Add customer tap in middle by 4/1.  Add 50MW load .  Line uprate to 225MVA.</t>
+  </si>
+  <si>
+    <t>Breaker PM</t>
+  </si>
+  <si>
+    <t>20 weeks</t>
+  </si>
+  <si>
+    <t>Can be broken up into 2 week sections.</t>
+  </si>
+  <si>
+    <t>3 weeks</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>6 weeks</t>
+  </si>
+  <si>
+    <t>Needs to overlap exactly 1 week with 67</t>
+  </si>
+  <si>
+    <t>Needs to overlap exactly 1 week with 66</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>Concurrent with 153</t>
+  </si>
+  <si>
+    <t>Concurrent with 152</t>
+  </si>
+  <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
+    <t>Concurrent with 124, must be done by 7/1 for regulatory compliance</t>
+  </si>
+  <si>
+    <t>Concurrent with 123, must be done by 7/1 for regulatory compliance</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>Same crew as 86</t>
+  </si>
+  <si>
+    <t>Same crew as 85</t>
+  </si>
+  <si>
+    <t>Permits not available until 4/1</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>Must be complete by 4/1</t>
+  </si>
+  <si>
+    <t>Units at 61 and 62 must be offline for this work</t>
+  </si>
+  <si>
+    <t>Must be complete by 7/1 for regulatory compliance</t>
+  </si>
+  <si>
+    <t>8 weeks</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>Pg</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Duration (Weeks)</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>Independency</t>
+  </si>
+  <si>
+    <t>Starting Time Frame</t>
+  </si>
+  <si>
+    <t>Ending Time Frame</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Outage Overlap</t>
+  </si>
+  <si>
+    <t>Load (MW)</t>
+  </si>
+  <si>
+    <t>Line Uprate (MVA)</t>
+  </si>
+  <si>
+    <t>Bus Status</t>
   </si>
   <si>
     <t>3 days</t>
   </si>
   <si>
-    <t>Materials not available until 8/16</t>
-  </si>
-  <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>Add customer tap in middle by 4/1.  Add 50MW load .  Line uprate to 225MVA.</t>
-  </si>
-  <si>
     <t>1 day</t>
   </si>
   <si>
-    <t>Breaker PM</t>
-  </si>
-  <si>
-    <t>20 weeks</t>
-  </si>
-  <si>
-    <t>Can be broken up into 2 week sections.</t>
-  </si>
-  <si>
-    <t>3 weeks</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>6 weeks</t>
-  </si>
-  <si>
-    <t>Needs to overlap exactly 1 week with 67</t>
-  </si>
-  <si>
-    <t>Needs to overlap exactly 1 week with 66</t>
-  </si>
-  <si>
-    <t>10 days</t>
-  </si>
-  <si>
-    <t>Concurrent with 153</t>
-  </si>
-  <si>
-    <t>Concurrent with 152</t>
-  </si>
-  <si>
-    <t>4 weeks</t>
-  </si>
-  <si>
-    <t>Concurrent with 124, must be done by 7/1 for regulatory compliance</t>
-  </si>
-  <si>
-    <t>Concurrent with 123, must be done by 7/1 for regulatory compliance</t>
-  </si>
-  <si>
-    <t>1 week</t>
-  </si>
-  <si>
-    <t>Same crew as 86</t>
-  </si>
-  <si>
-    <t>Same crew as 85</t>
-  </si>
-  <si>
-    <t>Permits not available until 4/1</t>
-  </si>
-  <si>
-    <t>5 days</t>
-  </si>
-  <si>
-    <t>Must be complete by 4/1</t>
-  </si>
-  <si>
-    <t>Units at 61 and 62 must be offline for this work</t>
-  </si>
-  <si>
-    <t>Must be complete by 7/1 for regulatory compliance</t>
-  </si>
-  <si>
-    <t>8 weeks</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Pmax</t>
-  </si>
-  <si>
-    <t>Pg</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Duration (Weeks)</t>
+    <t>Split</t>
   </si>
 </sst>
 </file>
@@ -200,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +240,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,21 +583,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A13EECC-0B84-49EB-BC90-A35F1CF57379}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.31640625" customWidth="1"/>
+    <col min="4" max="4" width="17.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,429 +611,709 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A2" s="1">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="7">
+        <v>45154</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A3" s="1">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E3" s="8">
+        <v>45016</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6">
+        <v>50</v>
+      </c>
+      <c r="K3" s="6">
+        <v>225</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="1">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1">
-        <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" s="1">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A5" s="1">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A6" s="1">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>83</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="1">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="1">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F8" s="1">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F9" s="1">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10" s="1">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
+        <v>152</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E11" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F11" s="1">
+        <v>153</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A12" s="1">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E12" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F12" s="1">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
+        <v>123</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45107</v>
+      </c>
+      <c r="F13" s="1">
+        <v>124</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14" s="1">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E14" s="8">
+        <v>45107</v>
+      </c>
+      <c r="F14" s="1">
+        <v>123</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15" s="1">
         <v>85</v>
       </c>
-      <c r="C4" s="1">
-        <v>131</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E15" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>86</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A16" s="1">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E16" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>85</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A17" s="1">
+        <v>165</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8">
+        <v>45017</v>
+      </c>
+      <c r="E17" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A18" s="1">
+        <v>166</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8">
+        <v>45017</v>
+      </c>
+      <c r="E18" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A19" s="1">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8">
+        <v>45017</v>
+      </c>
+      <c r="E19" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A20" s="1">
+        <v>163</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8">
+        <v>45017</v>
+      </c>
+      <c r="E20" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A21" s="1">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8">
+        <v>45017</v>
+      </c>
+      <c r="E21" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E22" s="8">
+        <v>45016</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A23" s="1">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E23" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A24" s="1">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C24" s="1"/>
+      <c r="D24" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E24" s="8">
+        <v>45107</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A25" s="1">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C25" s="1"/>
+      <c r="D25" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E25" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A26" s="1">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1">
-        <v>74</v>
-      </c>
-      <c r="C7" s="1">
-        <v>114</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>79</v>
-      </c>
-      <c r="B10" s="1">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1">
-        <v>125</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1">
-        <v>98</v>
-      </c>
-      <c r="C11" s="1">
-        <v>152</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>80</v>
-      </c>
-      <c r="B12" s="1">
-        <v>99</v>
-      </c>
-      <c r="C12" s="1">
-        <v>153</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>77</v>
-      </c>
-      <c r="B13" s="1">
-        <v>80</v>
-      </c>
-      <c r="C13" s="1">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>77</v>
-      </c>
-      <c r="B14" s="1">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1">
-        <v>124</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1">
-        <v>86</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>103</v>
-      </c>
-      <c r="B17" s="1">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1">
-        <v>165</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>103</v>
-      </c>
-      <c r="B18" s="1">
-        <v>105</v>
-      </c>
-      <c r="C18" s="1">
-        <v>166</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>104</v>
-      </c>
-      <c r="B19" s="1">
-        <v>105</v>
-      </c>
-      <c r="C19" s="1">
-        <v>168</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1">
-        <v>103</v>
-      </c>
-      <c r="C20" s="1">
-        <v>163</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>100</v>
-      </c>
-      <c r="B21" s="1">
-        <v>104</v>
-      </c>
-      <c r="C21" s="1">
-        <v>164</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1">
-        <v>92</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>65</v>
-      </c>
-      <c r="B24" s="1">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E26" s="8">
+        <v>45291</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1005,36 +1327,36 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A12" sqref="A12:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="7" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" customWidth="1"/>
+    <col min="6" max="7" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>15</v>
       </c>
@@ -1051,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1068,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>70</v>
       </c>
@@ -1085,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>46</v>
       </c>
@@ -1102,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>111</v>
       </c>
@@ -1119,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>69</v>
       </c>
@@ -1136,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>74</v>
       </c>
@@ -1153,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1170,7 +1492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>73</v>
       </c>
@@ -1187,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1204,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>40</v>
       </c>
@@ -1221,7 +1543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>116</v>
       </c>
@@ -1238,7 +1560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>54</v>
       </c>
@@ -1255,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>80</v>
       </c>
@@ -1272,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>55</v>
       </c>
@@ -1289,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1306,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>112</v>
       </c>
@@ -1323,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1340,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>59</v>
       </c>
@@ -1366,18 +1688,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,14 +1847,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FFDC1F-D392-46EA-B216-D6F1C8BD2775}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2822935C-7A88-4244-96F4-BC6A4FAAD8E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1544,6 +1858,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="abf4bfbe-3fcd-42bf-9085-ac1890f53a39"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FFDC1F-D392-46EA-B216-D6F1C8BD2775}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
